--- a/exemples/cryptoPaxgoldPolygon.xlsx
+++ b/exemples/cryptoPaxgoldPolygon.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve">nom</t>
   </si>
@@ -95,6 +95,30 @@
   </si>
   <si>
     <t xml:space="preserve">&lt; - initialiser la premiere ligne manuellent : ////valeur cours actuelle ou anticipée crypto/dollars //// 0,00000000001 //// date du jour //// heure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31/10/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:46:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/11/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:50:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/11/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:36:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/11/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:36:17</t>
   </si>
 </sst>
 </file>
@@ -467,7 +491,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="A5:E12"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -543,10 +567,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>16</v>
@@ -562,23 +586,23 @@
       </c>
       <c r="I2" s="7" t="n">
         <f aca="false">MIN(A4:A9999)</f>
-        <v>4000</v>
+        <v>3930.46</v>
       </c>
       <c r="J2" s="8" t="n">
         <f aca="false">SUMPRODUCT(A4:A9999,B4:B9999)/SUM(B4:B9999)</f>
-        <v>4000</v>
+        <v>3967.50250000016</v>
       </c>
       <c r="K2" s="7" t="n">
         <f aca="false">J2*(1+(C2/100))</f>
-        <v>4800</v>
+        <v>5554.50350000022</v>
       </c>
       <c r="L2" s="8" t="n">
         <f aca="false">SUM(B4:B9999)</f>
-        <v>0.0002</v>
+        <v>4.00000000002</v>
       </c>
       <c r="M2" s="9" t="n">
         <f aca="false">COUNTA(A1:A9999)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N2" s="10" t="n">
         <v>18</v>
@@ -605,7 +629,7 @@
         <v>4000</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>0.0002</v>
+        <v>2E-011</v>
       </c>
       <c r="C4" s="14" t="n">
         <v>45934</v>
@@ -616,7 +640,62 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>3991.88</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>3973.96</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>3973.71</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>3930.46</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/exemples/cryptoPaxgoldPolygon.xlsx
+++ b/exemples/cryptoPaxgoldPolygon.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">nom</t>
   </si>
@@ -95,30 +95,6 @@
   </si>
   <si>
     <t xml:space="preserve">&lt; - initialiser la premiere ligne manuellent : ////valeur cours actuelle ou anticipée crypto/dollars //// 0,00000000001 //// date du jour //// heure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/10/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:46:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03/11/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01:50:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/11/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:36:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/11/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01:36:17</t>
   </si>
 </sst>
 </file>
@@ -491,7 +467,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -570,7 +546,7 @@
         <v>40</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>16</v>
@@ -586,23 +562,23 @@
       </c>
       <c r="I2" s="7" t="n">
         <f aca="false">MIN(A4:A9999)</f>
-        <v>3930.46</v>
+        <v>4050</v>
       </c>
       <c r="J2" s="8" t="n">
         <f aca="false">SUMPRODUCT(A4:A9999,B4:B9999)/SUM(B4:B9999)</f>
-        <v>3967.50250000016</v>
+        <v>4050</v>
       </c>
       <c r="K2" s="7" t="n">
         <f aca="false">J2*(1+(C2/100))</f>
-        <v>5554.50350000022</v>
+        <v>5670</v>
       </c>
       <c r="L2" s="8" t="n">
         <f aca="false">SUM(B4:B9999)</f>
-        <v>4.00000000002</v>
+        <v>4</v>
       </c>
       <c r="M2" s="9" t="n">
         <f aca="false">COUNTA(A1:A9999)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N2" s="10" t="n">
         <v>18</v>
@@ -626,10 +602,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>2E-011</v>
+        <v>4</v>
       </c>
       <c r="C4" s="14" t="n">
         <v>45934</v>
@@ -640,62 +616,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>3991.88</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>3973.96</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>3973.71</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>3930.46</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
